--- a/pile6_sect_3_all.xlsx
+++ b/pile6_sect_3_all.xlsx
@@ -478,7 +478,7 @@
         <v>44063</v>
       </c>
       <c r="B4">
-        <v>27.07291666666666</v>
+        <v>27.07291666666667</v>
       </c>
       <c r="C4">
         <v>30.34041666666667</v>
@@ -579,7 +579,7 @@
         <v>25.72208333333333</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -596,7 +596,7 @@
         <v>29.62958333333333</v>
       </c>
       <c r="C9">
-        <v>31.82291666666666</v>
+        <v>31.82291666666667</v>
       </c>
       <c r="D9">
         <v>27.14916666666667</v>
@@ -694,7 +694,7 @@
         <v>19.87291666666667</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -711,7 +711,7 @@
         <v>24.91125</v>
       </c>
       <c r="C14">
-        <v>27.87208333333334</v>
+        <v>27.87208333333333</v>
       </c>
       <c r="D14">
         <v>19.87875</v>
@@ -740,7 +740,7 @@
         <v>15.76916666666667</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -760,7 +760,7 @@
         <v>28.64125</v>
       </c>
       <c r="D16">
-        <v>15.64291666666666</v>
+        <v>15.64291666666667</v>
       </c>
       <c r="E16">
         <v>12.52075</v>
@@ -852,7 +852,7 @@
         <v>24.78</v>
       </c>
       <c r="D20">
-        <v>16.47916666666666</v>
+        <v>16.47916666666667</v>
       </c>
       <c r="E20">
         <v>15.23</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -895,7 +895,7 @@
         <v>25.40166666666667</v>
       </c>
       <c r="C22">
-        <v>27.18708333333334</v>
+        <v>27.18708333333333</v>
       </c>
       <c r="D22">
         <v>19.77541666666667</v>
@@ -944,7 +944,7 @@
         <v>26.39333333333333</v>
       </c>
       <c r="D24">
-        <v>22.53083333333334</v>
+        <v>22.53083333333333</v>
       </c>
       <c r="E24">
         <v>13.22791666666667</v>
@@ -961,7 +961,7 @@
         <v>44084</v>
       </c>
       <c r="B25">
-        <v>24.00083333333332</v>
+        <v>24.00083333333333</v>
       </c>
       <c r="C25">
         <v>26.84166666666667</v>
@@ -993,7 +993,7 @@
         <v>16.39333333333333</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1010,7 +1010,7 @@
         <v>21.56291666666667</v>
       </c>
       <c r="C27">
-        <v>23.80666666666666</v>
+        <v>23.80666666666667</v>
       </c>
       <c r="D27">
         <v>15.91666666666667</v>
@@ -1030,7 +1030,7 @@
         <v>44087</v>
       </c>
       <c r="B28">
-        <v>20.35583333333334</v>
+        <v>20.35583333333333</v>
       </c>
       <c r="C28">
         <v>21.81833333333333</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,7 +1059,7 @@
         <v>16.45625</v>
       </c>
       <c r="D29">
-        <v>20.23416666666666</v>
+        <v>20.23416666666667</v>
       </c>
       <c r="E29">
         <v>11.25125</v>
@@ -1102,13 +1102,13 @@
         <v>19.74791666666667</v>
       </c>
       <c r="C31">
-        <v>20.17166666666666</v>
+        <v>20.17166666666667</v>
       </c>
       <c r="D31">
         <v>13.625</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1151,10 +1151,10 @@
         <v>22.38791666666667</v>
       </c>
       <c r="D33">
-        <v>9.218750000000002</v>
+        <v>9.21875</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1200,7 +1200,7 @@
         <v>13.57416666666666</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1237,7 +1237,7 @@
         <v>44096</v>
       </c>
       <c r="B37">
-        <v>16.69166666666666</v>
+        <v>16.69166666666667</v>
       </c>
       <c r="C37">
         <v>15.00375</v>
@@ -1246,7 +1246,7 @@
         <v>16.51916666666667</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1263,7 +1263,7 @@
         <v>17.30541666666667</v>
       </c>
       <c r="C38">
-        <v>15.96791666666666</v>
+        <v>15.96791666666667</v>
       </c>
       <c r="D38">
         <v>15.66583333333333</v>
@@ -1292,7 +1292,7 @@
         <v>13.95833333333333</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1312,7 +1312,7 @@
         <v>21.53291666666667</v>
       </c>
       <c r="D40">
-        <v>12.56208333333334</v>
+        <v>12.56208333333333</v>
       </c>
       <c r="E40">
         <v>13.67916666666667</v>
@@ -1401,7 +1401,7 @@
         <v>22.89833333333333</v>
       </c>
       <c r="C44">
-        <v>24.77249999999999</v>
+        <v>24.7725</v>
       </c>
       <c r="D44">
         <v>16.8825</v>
@@ -1430,7 +1430,7 @@
         <v>17.22</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1467,16 +1467,16 @@
         <v>44106</v>
       </c>
       <c r="B47">
-        <v>23.66958333333333</v>
+        <v>23.66958333333334</v>
       </c>
       <c r="C47">
-        <v>26.31083333333332</v>
+        <v>26.31083333333333</v>
       </c>
       <c r="D47">
         <v>15.77791666666667</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1493,7 +1493,7 @@
         <v>23.58916666666667</v>
       </c>
       <c r="C48">
-        <v>26.45999999999999</v>
+        <v>26.46</v>
       </c>
       <c r="D48">
         <v>13.36666666666667</v>
@@ -1562,7 +1562,7 @@
         <v>23.64791666666666</v>
       </c>
       <c r="C51">
-        <v>21.19499999999999</v>
+        <v>21.195</v>
       </c>
       <c r="D51">
         <v>11.775</v>
@@ -1591,7 +1591,7 @@
         <v>12.78541666666667</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1631,7 +1631,7 @@
         <v>23.79583333333333</v>
       </c>
       <c r="C54">
-        <v>23.08541666666667</v>
+        <v>23.08541666666666</v>
       </c>
       <c r="D54">
         <v>14.21958333333333</v>
@@ -1660,7 +1660,7 @@
         <v>15.07791666666667</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>15.62166666666667</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1700,13 +1700,13 @@
         <v>22.31041666666667</v>
       </c>
       <c r="C57">
-        <v>24.09541666666666</v>
+        <v>24.09541666666667</v>
       </c>
       <c r="D57">
         <v>17.35291666666667</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1743,7 +1743,7 @@
         <v>44118</v>
       </c>
       <c r="B59">
-        <v>21.02791666666666</v>
+        <v>21.02791666666667</v>
       </c>
       <c r="C59">
         <v>22.9575</v>
@@ -1752,7 +1752,7 @@
         <v>16.55625</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1766,7 +1766,7 @@
         <v>44119</v>
       </c>
       <c r="B60">
-        <v>19.54583333333334</v>
+        <v>19.54583333333333</v>
       </c>
       <c r="C60">
         <v>21.04875</v>
@@ -1821,7 +1821,7 @@
         <v>12.04958333333333</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1890,7 +1890,7 @@
         <v>5.750916666666666</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1907,19 +1907,19 @@
         <v>13.58708333333333</v>
       </c>
       <c r="C66">
-        <v>16.50583333333334</v>
+        <v>16.50583333333333</v>
       </c>
       <c r="D66">
         <v>6.109458333333333</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>2.4285</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1982,7 +1982,7 @@
         <v>6.369125</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -1996,13 +1996,13 @@
         <v>44129</v>
       </c>
       <c r="B70">
-        <v>9.418749999999999</v>
+        <v>9.418750000000001</v>
       </c>
       <c r="C70">
-        <v>8.186250000000001</v>
+        <v>8.186249999999999</v>
       </c>
       <c r="D70">
-        <v>7.816083333333331</v>
+        <v>7.816083333333334</v>
       </c>
       <c r="E70">
         <v>1.084916666666667</v>
@@ -2022,13 +2022,13 @@
         <v>12.89333333333333</v>
       </c>
       <c r="C71">
-        <v>13.41666666666666</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="D71">
         <v>3.899083333333333</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2048,7 +2048,7 @@
         <v>16.75083333333333</v>
       </c>
       <c r="D72">
-        <v>2.800166666666667</v>
+        <v>2.800166666666666</v>
       </c>
       <c r="E72">
         <v>9.55875</v>
@@ -2140,10 +2140,10 @@
         <v>17.22458333333333</v>
       </c>
       <c r="D76">
-        <v>6.793333333333332</v>
+        <v>6.793333333333333</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2163,10 +2163,10 @@
         <v>17.18666666666667</v>
       </c>
       <c r="D77">
-        <v>6.478833333333334</v>
+        <v>6.478833333333333</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2186,10 +2186,10 @@
         <v>12.9525</v>
       </c>
       <c r="D78">
-        <v>4.543083333333333</v>
+        <v>4.543083333333334</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2203,7 +2203,7 @@
         <v>44138</v>
       </c>
       <c r="B79">
-        <v>14.68541666666666</v>
+        <v>14.68541666666667</v>
       </c>
       <c r="C79">
         <v>9.206333333333333</v>
@@ -2212,7 +2212,7 @@
         <v>4.622666666666666</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2255,10 +2255,10 @@
         <v>13.92666666666667</v>
       </c>
       <c r="D81">
-        <v>7.704041666666665</v>
+        <v>7.704041666666666</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2275,7 +2275,7 @@
         <v>9.873749999999999</v>
       </c>
       <c r="C82">
-        <v>7.917458333333332</v>
+        <v>7.917458333333333</v>
       </c>
       <c r="D82">
         <v>13.36666666666667</v>
@@ -2295,7 +2295,7 @@
         <v>44142</v>
       </c>
       <c r="B83">
-        <v>8.679166666666665</v>
+        <v>8.679166666666667</v>
       </c>
       <c r="C83">
         <v>5.929041666666667</v>
@@ -2304,7 +2304,7 @@
         <v>15.35916666666667</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2321,7 +2321,7 @@
         <v>8.892916666666666</v>
       </c>
       <c r="C84">
-        <v>5.794458333333332</v>
+        <v>5.794458333333334</v>
       </c>
       <c r="D84">
         <v>13.98708333333333</v>
@@ -2341,7 +2341,7 @@
         <v>44144</v>
       </c>
       <c r="B85">
-        <v>8.574583333333331</v>
+        <v>8.574583333333333</v>
       </c>
       <c r="C85">
         <v>5.879166666666666</v>
@@ -2367,13 +2367,13 @@
         <v>9.237499999999999</v>
       </c>
       <c r="C86">
-        <v>6.293666666666668</v>
+        <v>6.293666666666667</v>
       </c>
       <c r="D86">
-        <v>11.79291666666667</v>
+        <v>11.79291666666666</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2390,10 +2390,10 @@
         <v>10.10375</v>
       </c>
       <c r="C87">
-        <v>7.068625000000001</v>
+        <v>7.068625</v>
       </c>
       <c r="D87">
-        <v>9.823749999999999</v>
+        <v>9.82375</v>
       </c>
       <c r="E87">
         <v>-0.4385416666666666</v>
@@ -2413,10 +2413,10 @@
         <v>10.485</v>
       </c>
       <c r="C88">
-        <v>7.903874999999999</v>
+        <v>7.903875</v>
       </c>
       <c r="D88">
-        <v>8.823750000000002</v>
+        <v>8.82375</v>
       </c>
       <c r="E88">
         <v>2.956208333333333</v>
@@ -2436,13 +2436,13 @@
         <v>10.8725</v>
       </c>
       <c r="C89">
-        <v>8.770416666666666</v>
+        <v>8.770416666666668</v>
       </c>
       <c r="D89">
-        <v>7.488458333333331</v>
+        <v>7.488458333333334</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2465,7 +2465,7 @@
         <v>5.177083333333333</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2488,7 +2488,7 @@
         <v>3.461791666666667</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2534,13 +2534,13 @@
         <v>1.726625</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,7 +2554,7 @@
         <v>10.98141666666667</v>
       </c>
       <c r="D94">
-        <v>2.584416666666667</v>
+        <v>2.584416666666666</v>
       </c>
       <c r="E94">
         <v>4.938125</v>
@@ -2580,7 +2580,7 @@
         <v>3.431</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2594,13 +2594,13 @@
         <v>44155</v>
       </c>
       <c r="B96">
-        <v>7.376416666666668</v>
+        <v>7.376416666666667</v>
       </c>
       <c r="C96">
         <v>6.680708333333333</v>
       </c>
       <c r="D96">
-        <v>5.837750000000001</v>
+        <v>5.83775</v>
       </c>
       <c r="E96">
         <v>-0.5664583333333334</v>
@@ -2617,7 +2617,7 @@
         <v>44156</v>
       </c>
       <c r="B97">
-        <v>9.067916666666664</v>
+        <v>9.067916666666667</v>
       </c>
       <c r="C97">
         <v>6.825416666666666</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>11.93458333333333</v>
       </c>
       <c r="D98">
-        <v>2.450124999999999</v>
+        <v>2.450125</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2686,7 +2686,7 @@
         <v>44159</v>
       </c>
       <c r="B100">
-        <v>9.147083333333335</v>
+        <v>9.147083333333333</v>
       </c>
       <c r="C100">
         <v>8.447916666666666</v>
@@ -2712,7 +2712,7 @@
         <v>10.15666666666667</v>
       </c>
       <c r="C101">
-        <v>9.016666666666666</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="D101">
         <v>2.79325</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2784,7 +2784,7 @@
         <v>13.01375</v>
       </c>
       <c r="D104">
-        <v>1.099041666666666</v>
+        <v>1.099041666666667</v>
       </c>
       <c r="E104">
         <v>-0.05133333333333333</v>
@@ -2801,7 +2801,7 @@
         <v>44164</v>
       </c>
       <c r="B105">
-        <v>11.92958333333334</v>
+        <v>11.92958333333333</v>
       </c>
       <c r="C105">
         <v>12.59166666666667</v>
@@ -2850,7 +2850,7 @@
         <v>11.86208333333333</v>
       </c>
       <c r="C107">
-        <v>11.94333333333334</v>
+        <v>11.94333333333333</v>
       </c>
       <c r="D107">
         <v>1.536833333333333</v>
@@ -2879,7 +2879,7 @@
         <v>2.265958333333333</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2925,7 +2925,7 @@
         <v>1.148208333333333</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2971,7 +2971,7 @@
         <v>1.06575</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2985,10 +2985,10 @@
         <v>44172</v>
       </c>
       <c r="B113">
-        <v>12.31958333333334</v>
+        <v>12.31958333333333</v>
       </c>
       <c r="C113">
-        <v>8.262083333333335</v>
+        <v>8.262083333333333</v>
       </c>
       <c r="D113">
         <v>0.99575</v>
@@ -3011,7 +3011,7 @@
         <v>12.28041666666667</v>
       </c>
       <c r="C114">
-        <v>8.947500000000002</v>
+        <v>8.9475</v>
       </c>
       <c r="D114">
         <v>1.059333333333333</v>
@@ -3040,7 +3040,7 @@
         <v>1.105541666666667</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3063,7 +3063,7 @@
         <v>1.150375</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3086,7 +3086,7 @@
         <v>1.171375</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3100,13 +3100,13 @@
         <v>44177</v>
       </c>
       <c r="B118">
-        <v>10.97458333333334</v>
+        <v>10.97458333333333</v>
       </c>
       <c r="C118">
         <v>10.78375</v>
       </c>
       <c r="D118">
-        <v>1.203375000000001</v>
+        <v>1.203375</v>
       </c>
       <c r="E118">
         <v>-1.885</v>
@@ -3132,7 +3132,7 @@
         <v>1.172083333333333</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3169,7 +3169,7 @@
         <v>44180</v>
       </c>
       <c r="B121">
-        <v>9.878333333333336</v>
+        <v>9.878333333333334</v>
       </c>
       <c r="C121">
         <v>10.49583333333333</v>
@@ -3178,7 +3178,7 @@
         <v>1.421083333333333</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3192,7 +3192,7 @@
         <v>44181</v>
       </c>
       <c r="B122">
-        <v>10.38583333333334</v>
+        <v>10.38583333333333</v>
       </c>
       <c r="C122">
         <v>10.80083333333334</v>
@@ -3244,7 +3244,7 @@
         <v>10.74958333333333</v>
       </c>
       <c r="D124">
-        <v>0.9289166666666665</v>
+        <v>0.9289166666666667</v>
       </c>
       <c r="E124">
         <v>-4.422208333333333</v>
@@ -3267,10 +3267,10 @@
         <v>10.37833333333333</v>
       </c>
       <c r="D125">
-        <v>0.9021666666666666</v>
+        <v>0.9021666666666667</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3284,7 +3284,7 @@
         <v>44185</v>
       </c>
       <c r="B126">
-        <v>9.852499999999999</v>
+        <v>9.852500000000001</v>
       </c>
       <c r="C126">
         <v>10.07791666666667</v>
@@ -3330,7 +3330,7 @@
         <v>44187</v>
       </c>
       <c r="B128">
-        <v>9.805000000000001</v>
+        <v>9.805</v>
       </c>
       <c r="C128">
         <v>10.22083333333333</v>
@@ -3359,10 +3359,10 @@
         <v>10.66</v>
       </c>
       <c r="D129">
-        <v>0.9999583333333329</v>
+        <v>0.9999583333333333</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3385,7 +3385,7 @@
         <v>1.048791666666667</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3405,7 +3405,7 @@
         <v>10.24291666666667</v>
       </c>
       <c r="D131">
-        <v>0.8175833333333332</v>
+        <v>0.8175833333333333</v>
       </c>
       <c r="E131">
         <v>-1.789541666666667</v>
@@ -3451,10 +3451,10 @@
         <v>9.415416666666667</v>
       </c>
       <c r="D133">
-        <v>0.7818333333333336</v>
+        <v>0.7818333333333333</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3471,7 +3471,7 @@
         <v>10.64666666666667</v>
       </c>
       <c r="C134">
-        <v>8.812499999999998</v>
+        <v>8.8125</v>
       </c>
       <c r="D134">
         <v>0.61675</v>
@@ -3514,10 +3514,10 @@
         <v>44195</v>
       </c>
       <c r="B136">
-        <v>9.953750000000001</v>
+        <v>9.953749999999999</v>
       </c>
       <c r="C136">
-        <v>6.473208333333335</v>
+        <v>6.473208333333333</v>
       </c>
       <c r="D136">
         <v>0.3899583333333334</v>
@@ -3537,7 +3537,7 @@
         <v>44196</v>
       </c>
       <c r="B137">
-        <v>9.684583333333332</v>
+        <v>9.684583333333334</v>
       </c>
       <c r="C137">
         <v>5.77725</v>
@@ -3546,7 +3546,7 @@
         <v>0.4426666666666667</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3560,7 +3560,7 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>9.796249999999999</v>
+        <v>9.796250000000001</v>
       </c>
       <c r="C138">
         <v>6.435333333333333</v>
@@ -3586,10 +3586,10 @@
         <v>10.04041666666667</v>
       </c>
       <c r="C139">
-        <v>7.369541666666668</v>
+        <v>7.369541666666667</v>
       </c>
       <c r="D139">
-        <v>0.7466666666666666</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="E139">
         <v>-1.51575</v>
@@ -3612,7 +3612,7 @@
         <v>8.307208333333334</v>
       </c>
       <c r="D140">
-        <v>0.8644166666666667</v>
+        <v>0.8644166666666666</v>
       </c>
       <c r="E140">
         <v>-2.420791666666667</v>
@@ -3632,7 +3632,7 @@
         <v>10.02708333333333</v>
       </c>
       <c r="C141">
-        <v>8.968749999999998</v>
+        <v>8.96875</v>
       </c>
       <c r="D141">
         <v>0.9819583333333334</v>
@@ -3652,10 +3652,10 @@
         <v>44201</v>
       </c>
       <c r="B142">
-        <v>9.294583333333332</v>
+        <v>9.294583333333334</v>
       </c>
       <c r="C142">
-        <v>8.937083333333335</v>
+        <v>8.937083333333334</v>
       </c>
       <c r="D142">
         <v>1.192375</v>
@@ -3675,13 +3675,13 @@
         <v>44202</v>
       </c>
       <c r="B143">
-        <v>8.510416666666668</v>
+        <v>8.510416666666666</v>
       </c>
       <c r="C143">
         <v>8.038458333333333</v>
       </c>
       <c r="D143">
-        <v>1.419958333333334</v>
+        <v>1.419958333333333</v>
       </c>
       <c r="E143">
         <v>-7.645208333333334</v>
@@ -3701,13 +3701,13 @@
         <v>8.733750000000001</v>
       </c>
       <c r="C144">
-        <v>8.426666666666666</v>
+        <v>8.426666666666668</v>
       </c>
       <c r="D144">
         <v>1.146625</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3744,7 +3744,7 @@
         <v>44205</v>
       </c>
       <c r="B146">
-        <v>7.841499999999999</v>
+        <v>7.8415</v>
       </c>
       <c r="C146">
         <v>7.578125</v>
@@ -3767,13 +3767,13 @@
         <v>44206</v>
       </c>
       <c r="B147">
-        <v>7.451583333333332</v>
+        <v>7.451583333333333</v>
       </c>
       <c r="C147">
         <v>6.791875</v>
       </c>
       <c r="D147">
-        <v>1.141916666666666</v>
+        <v>1.141916666666667</v>
       </c>
       <c r="E147">
         <v>-15.26125</v>
@@ -3790,16 +3790,16 @@
         <v>44207</v>
       </c>
       <c r="B148">
-        <v>7.902124999999999</v>
+        <v>7.902125000000001</v>
       </c>
       <c r="C148">
-        <v>7.954083333333334</v>
+        <v>7.954083333333333</v>
       </c>
       <c r="D148">
-        <v>0.7658749999999999</v>
+        <v>0.765875</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3813,10 +3813,10 @@
         <v>44208</v>
       </c>
       <c r="B149">
-        <v>7.997791666666665</v>
+        <v>7.997791666666667</v>
       </c>
       <c r="C149">
-        <v>8.211416666666668</v>
+        <v>8.211416666666667</v>
       </c>
       <c r="D149">
         <v>0.481125</v>
@@ -3839,7 +3839,7 @@
         <v>7.690916666666666</v>
       </c>
       <c r="C150">
-        <v>7.556708333333334</v>
+        <v>7.556708333333333</v>
       </c>
       <c r="D150">
         <v>0.2300833333333333</v>
@@ -3859,13 +3859,13 @@
         <v>44210</v>
       </c>
       <c r="B151">
-        <v>6.720958333333332</v>
+        <v>6.720958333333333</v>
       </c>
       <c r="C151">
-        <v>6.881916666666665</v>
+        <v>6.881916666666666</v>
       </c>
       <c r="D151">
-        <v>0.2901666666666666</v>
+        <v>0.2901666666666667</v>
       </c>
       <c r="E151">
         <v>-23.07625</v>
@@ -3882,13 +3882,13 @@
         <v>44211</v>
       </c>
       <c r="B152">
-        <v>5.169291666666666</v>
+        <v>5.169291666666667</v>
       </c>
       <c r="C152">
-        <v>4.663249999999999</v>
+        <v>4.663250000000001</v>
       </c>
       <c r="D152">
-        <v>0.5271250000000002</v>
+        <v>0.527125</v>
       </c>
       <c r="E152">
         <v>-20.69625</v>
@@ -3908,10 +3908,10 @@
         <v>4.053666666666667</v>
       </c>
       <c r="C153">
-        <v>3.734708333333334</v>
+        <v>3.734708333333333</v>
       </c>
       <c r="D153">
-        <v>0.6933750000000001</v>
+        <v>0.693375</v>
       </c>
       <c r="E153">
         <v>-17.11958333333333</v>
@@ -3928,7 +3928,7 @@
         <v>44213</v>
       </c>
       <c r="B154">
-        <v>3.107833333333334</v>
+        <v>3.107833333333333</v>
       </c>
       <c r="C154">
         <v>3.236625</v>
@@ -3954,7 +3954,7 @@
         <v>2.58375</v>
       </c>
       <c r="C155">
-        <v>3.014541666666666</v>
+        <v>3.014541666666667</v>
       </c>
       <c r="D155">
         <v>1.259708333333333</v>
@@ -3974,16 +3974,16 @@
         <v>44215</v>
       </c>
       <c r="B156">
-        <v>2.581333333333334</v>
+        <v>2.581333333333333</v>
       </c>
       <c r="C156">
         <v>3.323208333333334</v>
       </c>
       <c r="D156">
-        <v>1.334458333333334</v>
+        <v>1.334458333333333</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -3997,7 +3997,7 @@
         <v>44216</v>
       </c>
       <c r="B157">
-        <v>2.599375000000001</v>
+        <v>2.599375</v>
       </c>
       <c r="C157">
         <v>3.671416666666667</v>
@@ -4006,7 +4006,7 @@
         <v>1.302375</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4023,10 +4023,10 @@
         <v>2.881583333333333</v>
       </c>
       <c r="C158">
-        <v>4.154250000000001</v>
+        <v>4.15425</v>
       </c>
       <c r="D158">
-        <v>0.6818749999999998</v>
+        <v>0.6818749999999999</v>
       </c>
       <c r="E158">
         <v>-9.417208333333333</v>
@@ -4043,7 +4043,7 @@
         <v>44218</v>
       </c>
       <c r="B159">
-        <v>3.207791666666666</v>
+        <v>3.207791666666667</v>
       </c>
       <c r="C159">
         <v>4.896041666666666</v>
@@ -4066,16 +4066,16 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>3.245083333333335</v>
+        <v>3.245083333333334</v>
       </c>
       <c r="C160">
         <v>4.947166666666667</v>
       </c>
       <c r="D160">
-        <v>0.2684583333333333</v>
+        <v>0.2684583333333334</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4098,7 +4098,7 @@
         <v>0.3296666666666667</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4115,13 +4115,13 @@
         <v>3.962416666666666</v>
       </c>
       <c r="C162">
-        <v>5.278791666666668</v>
+        <v>5.278791666666667</v>
       </c>
       <c r="D162">
-        <v>0.4219583333333334</v>
+        <v>0.4219583333333333</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4138,13 +4138,13 @@
         <v>4.277708333333334</v>
       </c>
       <c r="C163">
-        <v>5.410875000000001</v>
+        <v>5.410875</v>
       </c>
       <c r="D163">
-        <v>0.4757083333333332</v>
+        <v>0.4757083333333333</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4167,7 +4167,7 @@
         <v>0.5525416666666666</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4184,10 +4184,10 @@
         <v>4.57875</v>
       </c>
       <c r="C165">
-        <v>5.710666666666665</v>
+        <v>5.710666666666667</v>
       </c>
       <c r="D165">
-        <v>0.6529999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="E165">
         <v>-1.4785</v>
@@ -4210,7 +4210,7 @@
         <v>5.903416666666666</v>
       </c>
       <c r="D166">
-        <v>0.6796666666666669</v>
+        <v>0.6796666666666668</v>
       </c>
       <c r="E166">
         <v>-2.829083333333333</v>
@@ -4250,7 +4250,7 @@
         <v>44227</v>
       </c>
       <c r="B168">
-        <v>4.541375000000001</v>
+        <v>4.541374999999999</v>
       </c>
       <c r="C168">
         <v>6.248666666666666</v>
@@ -4273,10 +4273,10 @@
         <v>44228</v>
       </c>
       <c r="B169">
-        <v>4.135291666666667</v>
+        <v>4.135291666666666</v>
       </c>
       <c r="C169">
-        <v>5.871166666666667</v>
+        <v>5.871166666666666</v>
       </c>
       <c r="D169">
         <v>0.8465416666666666</v>
@@ -4299,13 +4299,13 @@
         <v>3.630791666666667</v>
       </c>
       <c r="C170">
-        <v>5.122250000000001</v>
+        <v>5.12225</v>
       </c>
       <c r="D170">
         <v>0.8337083333333334</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4325,7 +4325,7 @@
         <v>4.659</v>
       </c>
       <c r="D171">
-        <v>0.5621666666666668</v>
+        <v>0.5621666666666667</v>
       </c>
       <c r="E171">
         <v>-15.64125</v>
@@ -4365,7 +4365,7 @@
         <v>44232</v>
       </c>
       <c r="B173">
-        <v>2.545624999999999</v>
+        <v>2.545625</v>
       </c>
       <c r="C173">
         <v>3.031583333333333</v>
@@ -4391,10 +4391,10 @@
         <v>2.446208333333333</v>
       </c>
       <c r="C174">
-        <v>2.713750000000001</v>
+        <v>2.71375</v>
       </c>
       <c r="D174">
-        <v>0.4497916666666668</v>
+        <v>0.4497916666666666</v>
       </c>
       <c r="E174">
         <v>-12.30708333333333</v>
